--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3386000.588301145</v>
+        <v>3490180.222752217</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7881031.456030817</v>
+        <v>7881031.456030818</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>29.71145624902096</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>87.99939789535657</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6487862606221</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>161.879311439585</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.196550565399</v>
+        <v>57.29212650174169</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>124.2843824910691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.9628781690742</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>132.987015343851</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>60.62247493361586</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>80.84493457113768</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.95095262166147</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>124.936238874645</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.90335196317939</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>149.6816769105188</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.86507844888302</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6285048151962</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85993176808013</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>40.96105405076448</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.719340605582</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>141.888808295738</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>164.130383082323</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>28.54004930889326</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.87236189622282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142951</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>163.3736250957624</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.5133592021562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>51.35059460819914</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>224.134902989514</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695591</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
-        <v>102.1557845699818</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>75.7590545620387</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>18.52833786981365</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>284.1791610783671</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.1686991936197</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
         <v>66.5121164321834</v>
@@ -4328,7 +4330,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4340,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4367,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>696.1640136694029</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C4" t="n">
-        <v>527.2278307414961</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398575</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1260.497135242791</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1005.812647036904</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.59460854119</v>
+        <v>716.3954769999436</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.605057643173</v>
+        <v>716.3954769999436</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.8124784996427</v>
+        <v>495.6028978564135</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.1078027362229</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1610.06888362131</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1320.966016746953</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1320.966016746953</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1031.548846709993</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.548846709993</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.7562675664626</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2510.786507531616</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.0385327017424</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1023497738355</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>372.9857103614997</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>225.0726167791066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1143.077631538632</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>853.6604615016718</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="Y10" t="n">
-        <v>873.6869975319821</v>
+        <v>625.6709106036544</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.644930552589</v>
+        <v>1029.681434529217</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1018.085974526359</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>797.2933953828287</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,49 +5281,49 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280583</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2228.723766791735</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2009.122301814677</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1720.047075158874</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="17">
@@ -5501,43 +5503,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908938</v>
@@ -5665,10 +5667,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.210065545664</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.525577339777</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.108407302816</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2233.355914590559</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2233.355914590559</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2728.681520806318</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3326.06000843287</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3953.657971987477</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>4505.567702226764</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>4505.567702226764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729773</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801866</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389531</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>486.4214942667323</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.25592267304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3890.881120601561</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703543</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560013</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2565.513299557012</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583949</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656042</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243707</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4623.787448650996</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4334.712221995194</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4080.027733789308</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3790.610563752347</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>3562.62101285433</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>3341.8284337108</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6211,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6236,37 +6238,37 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3229.653730559303</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C28" t="n">
-        <v>3060.717547631396</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>2910.600908219061</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2762.687814636668</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2615.797867138757</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2448.601767853637</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673938</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>4404.185983673938</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>4149.501495468051</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.08432543109</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>3632.094774533073</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>3411.302195389543</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>801.6918836311967</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>632.7557007032897</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>482.6390612909538</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>482.6390612909538</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>482.6390612909538</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085994</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X34" t="n">
-        <v>3677.229491085994</v>
+        <v>983.3403484614365</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>983.3403484614365</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239597</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2206.395003844405</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583949</v>
+        <v>983.3403484614365</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656042</v>
+        <v>814.4041655335295</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243707</v>
+        <v>664.2875261211937</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>516.3744325388004</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>369.4844850408899</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V37" t="n">
-        <v>3705.85703076444</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W37" t="n">
-        <v>3416.439860727479</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X37" t="n">
-        <v>3416.439860727479</v>
+        <v>983.3403484614365</v>
       </c>
       <c r="Y37" t="n">
-        <v>3195.647281583949</v>
+        <v>983.3403484614365</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>951.3929232910516</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>782.4567403631445</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>632.3401009508086</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>484.4270073684154</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>337.5370598705049</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>170.3409605853847</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.823518162839</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.833967264822</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.041388121291</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7399,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118214</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2878.328163333973</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3475.706650960525</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>4103.304614515131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>4655.214344754419</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>4655.214344754419</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4655.214344754419</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.5276345711973</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>336.3306903556518</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1690.411422855592</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1435.726934649706</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1146.309764612745</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>918.3202137147274</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.5276345711973</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>251.5626541092265</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249853</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10121,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>68.29586847696636</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>100.7734165143922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>152.3434691354485</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>31.34460909112579</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.5559695740482</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.5559695740479</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.56111625485111</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>245.5619442858265</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.11263957635529</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.726664722474311</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.116438016304784</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>111.7546635373306</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>123.374459202405</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.150513196506608</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.07129414993855</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.1735436840698</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>28.00274033431398</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>64.5356582841853</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>146.9958004224552</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.005313310877057</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.44677382459263</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
@@ -26332,13 +26334,13 @@
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
@@ -26353,7 +26355,7 @@
         <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.596890472448789e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770008.8920477176</v>
+        <v>-770008.8920477169</v>
       </c>
       <c r="C6" t="n">
-        <v>558735.8536798751</v>
+        <v>558735.8536798744</v>
       </c>
       <c r="D6" t="n">
-        <v>558735.8536798749</v>
+        <v>558735.853679875</v>
       </c>
       <c r="E6" t="n">
-        <v>306468.8049701503</v>
+        <v>306468.8049701501</v>
       </c>
       <c r="F6" t="n">
         <v>631881.2667775054</v>
       </c>
       <c r="G6" t="n">
-        <v>631881.2667775054</v>
+        <v>631881.2667775052</v>
       </c>
       <c r="H6" t="n">
         <v>631881.2667775054</v>
       </c>
       <c r="I6" t="n">
-        <v>631881.2667775054</v>
+        <v>631881.2667775056</v>
       </c>
       <c r="J6" t="n">
-        <v>414350.0643802281</v>
+        <v>414350.0643802283</v>
       </c>
       <c r="K6" t="n">
-        <v>631881.2667775054</v>
+        <v>631881.2667775052</v>
       </c>
       <c r="L6" t="n">
         <v>631881.2667775056</v>
       </c>
       <c r="M6" t="n">
-        <v>546826.2388419935</v>
+        <v>546826.2388419937</v>
       </c>
       <c r="N6" t="n">
-        <v>631881.2667775056</v>
+        <v>631881.2667775057</v>
       </c>
       <c r="O6" t="n">
         <v>631881.2667775056</v>
       </c>
       <c r="P6" t="n">
-        <v>631881.2667775055</v>
+        <v>631881.2667775057</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26790,28 +26792,28 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>324.971585371662</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>293.9309721769052</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>4.966686757590224</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.3325267660279</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04138809065460691</v>
+        <v>328.9458121543119</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>95.26456678510006</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.7709634944063</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>236.744085334618</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>84.79857308931538</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>171.2927087526903</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29922,58 +29924,58 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-2.240830720806019e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30159,58 +30161,58 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-2.240830720806019e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.518156540651734e-13</v>
       </c>
     </row>
     <row r="38">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31849,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>730.8697159579442</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -32072,28 +32074,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>227.8611086463986</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,34 +32311,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1572428165614</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>290.1088399635144</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722579</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0195168876591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M30" t="n">
-        <v>359.7678776111903</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>447.1326187913569</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>409.0029787211719</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.6580975439395</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>144.2373595085334</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35497,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>588.7356820359258</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>90.0196696720396</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O18" t="n">
-        <v>165.5609983721169</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.1270658774929</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M30" t="n">
-        <v>217.633843689172</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>313.1582113770266</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.97859357997559</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.395920534174449</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490180.222752217</v>
+        <v>3486167.612738223</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75.45713216103589</v>
       </c>
       <c r="E2" t="n">
-        <v>87.99939789535657</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>2.451630061591357</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>161.879311439585</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>205.6368254889293</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>57.29212650174169</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>74.75769145492382</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>149.6746290300077</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>238.8071638495608</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>132.987015343851</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>134.038989962303</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>80.84493457113768</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>98.95095262166147</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>149.6816769105188</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.86507844888302</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>126.3436347319672</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>82.85993176808013</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>141.888808295738</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>164.130383082323</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>41.33703994142951</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3736250957624</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.35059460819914</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>75.7590545620387</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.52833786981365</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410819</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470408</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.042352470408</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474941</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.9544330261738</v>
+        <v>363.7915515140943</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>363.7915515140943</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>363.7915515140943</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>215.8784579317012</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>68.98851043379082</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>68.98851043379082</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>68.98851043379082</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1260.497135242791</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.812647036904</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W4" t="n">
-        <v>716.3954769999436</v>
+        <v>812.5736815556418</v>
       </c>
       <c r="X4" t="n">
-        <v>716.3954769999436</v>
+        <v>584.5841306576244</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.6028978564135</v>
+        <v>363.7915515140943</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2801.623440380154</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524209</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1776.108054118788</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V10" t="n">
-        <v>1143.077631538632</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>853.6604615016718</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>625.6709106036544</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6709106036544</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5065,25 +5065,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.681434529217</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5193,10 +5193,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.329899359456</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2228.723766791735</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.122301814677</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.047075158874</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.362586952987</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>634.3345878491255</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>486.4214942667323</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6211,40 +6211,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>945.402603663004</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,19 +6712,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311967</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909538</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>482.6390612909538</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>482.6390612909538</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614365</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614365</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3403484614365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4041655335295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>664.2875261211937</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3744325388004</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4844850408899</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614365</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614365</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.3929232910516</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4567403631445</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>632.3401009508086</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.4270073684154</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>337.5370598705049</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3409605853847</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832661</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855602</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.2406881998</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.2406881998</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162839</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264822</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121291</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>781.250370848291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>631.1337314359553</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>483.2206378535622</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>336.3306903556518</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>68.29586847696636</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.34460909112579</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5559695740482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>40.90318636666068</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.56111625485111</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.726664722474311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.116438016304784</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0840080815017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>2.150513196506608</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1735436840698</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>64.5356582841853</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>146.9958004224552</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690168.2834032925</v>
+        <v>690168.2834032926</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.596890472448789e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319417</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770008.8920477169</v>
+        <v>-770008.892047717</v>
       </c>
       <c r="C6" t="n">
-        <v>558735.8536798744</v>
+        <v>558735.853679875</v>
       </c>
       <c r="D6" t="n">
-        <v>558735.853679875</v>
+        <v>558735.8536798749</v>
       </c>
       <c r="E6" t="n">
-        <v>306468.8049701501</v>
+        <v>306121.4257157927</v>
       </c>
       <c r="F6" t="n">
-        <v>631881.2667775054</v>
+        <v>631533.8875231484</v>
       </c>
       <c r="G6" t="n">
-        <v>631881.2667775052</v>
+        <v>631533.8875231484</v>
       </c>
       <c r="H6" t="n">
-        <v>631881.2667775054</v>
+        <v>631533.8875231487</v>
       </c>
       <c r="I6" t="n">
-        <v>631881.2667775056</v>
+        <v>631533.8875231486</v>
       </c>
       <c r="J6" t="n">
-        <v>414350.0643802283</v>
+        <v>414002.6851258709</v>
       </c>
       <c r="K6" t="n">
-        <v>631881.2667775052</v>
+        <v>631533.8875231482</v>
       </c>
       <c r="L6" t="n">
-        <v>631881.2667775056</v>
+        <v>631533.8875231484</v>
       </c>
       <c r="M6" t="n">
-        <v>546826.2388419937</v>
+        <v>546478.8595876364</v>
       </c>
       <c r="N6" t="n">
-        <v>631881.2667775057</v>
+        <v>631533.8875231484</v>
       </c>
       <c r="O6" t="n">
-        <v>631881.2667775056</v>
+        <v>631533.8875231488</v>
       </c>
       <c r="P6" t="n">
-        <v>631881.2667775057</v>
+        <v>631533.8875231486</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>279.2259094596471</v>
       </c>
       <c r="E2" t="n">
-        <v>293.9309721769052</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.90079034824676</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>124.3325267660279</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>45.35834646997264</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>328.9458121543119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>40.09439630143419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>168.0688818921507</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>236.744085334618</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>85.50995931386623</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>171.2927087526903</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.254819133275305e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29924,58 +29924,58 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.240830720806019e-14</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30161,58 +30161,58 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.240830720806019e-14</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.518156540651734e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>730.8697159579442</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>193.1175412796309</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>409.0029787211721</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>211.0222436375122</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>588.7356820359258</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>266.8689447991538</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3486167.612738223</v>
+        <v>3487928.14304101</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7881031.456030818</v>
+        <v>7881031.456030817</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>75.45713216103589</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>357.0621555633472</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>132.2642937891931</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>2.451630061591357</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21.27902055891157</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>205.6368254889293</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>124.2292170629841</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>149.6746290300077</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>238.8071638495608</v>
+        <v>184.1739595194691</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.98153210089474</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>134.038989962303</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.0280580960838</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>126.3436347319672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695591</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943746</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4400,52 +4400,52 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
         <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547494</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.7915515140943</v>
+        <v>1075.097337786232</v>
       </c>
       <c r="C4" t="n">
-        <v>363.7915515140943</v>
+        <v>906.1611548583255</v>
       </c>
       <c r="D4" t="n">
-        <v>363.7915515140943</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>215.8784579317012</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>68.98851043379082</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>68.98851043379082</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>68.98851043379082</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798489</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556418</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576244</v>
+        <v>1477.538381760002</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.7915515140943</v>
+        <v>1256.745802616472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2801.623440380154</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2470.560553036583</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.560553036583</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>973.5548741173885</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>804.6186911894816</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>654.5020517771459</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>506.5889581947528</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>359.6990106968424</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>191.9961740715613</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1776.108054118788</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1554.341438688313</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1554.341438688313</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1554.341438688313</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1554.341438688313</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1326.351887790296</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308156</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367744</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760994</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.38442316275</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.14006334809</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372278</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>753.0765981364616</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>584.1404152085547</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>434.023775796219</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>286.1106822138258</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>139.2207347159155</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>139.2207347159155</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.517642110231</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.7250629667013</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5533,16 +5533,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,25 +5740,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,13 +6442,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,19 +6712,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.738725912720952e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5874149221285734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>40.90318636666068</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690168.2834032926</v>
+        <v>690168.2834032925</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095138</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319417</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
@@ -26456,7 +26456,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770008.892047717</v>
+        <v>-770008.8920477178</v>
       </c>
       <c r="C6" t="n">
         <v>558735.853679875</v>
       </c>
       <c r="D6" t="n">
-        <v>558735.8536798749</v>
+        <v>558735.8536798756</v>
       </c>
       <c r="E6" t="n">
-        <v>306121.4257157927</v>
+        <v>306434.0670447141</v>
       </c>
       <c r="F6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.52885207</v>
       </c>
       <c r="G6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="H6" t="n">
-        <v>631533.8875231487</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="I6" t="n">
-        <v>631533.8875231486</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="J6" t="n">
-        <v>414002.6851258709</v>
+        <v>414315.3264547922</v>
       </c>
       <c r="K6" t="n">
-        <v>631533.8875231482</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="L6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.52885207</v>
       </c>
       <c r="M6" t="n">
-        <v>546478.8595876364</v>
+        <v>546791.500916558</v>
       </c>
       <c r="N6" t="n">
-        <v>631533.8875231484</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="O6" t="n">
-        <v>631533.8875231488</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="P6" t="n">
-        <v>631533.8875231486</v>
+        <v>631846.52885207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>279.2259094596471</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>12.6689451151218</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>16.35117922901927</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.90079034824676</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>333.4040210617714</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>45.35834646997264</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20.52579785133666</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>40.09439630143419</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>168.0688818921507</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>72.77348281342604</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>85.50995931386623</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.254819133275305e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31618,13 +31618,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876629</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
